--- a/cypress/downloads/Teams_20251201.xlsx
+++ b/cypress/downloads/Teams_20251201.xlsx
@@ -23,16 +23,16 @@
     <t>Motor Renewals Team (Cairo) 2</t>
   </si>
   <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>Team 111111111111</t>
+  </si>
+  <si>
+    <t>Desouky TU</t>
+  </si>
+  <si>
     <t>24/7</t>
-  </si>
-  <si>
-    <t>Team 111111111111</t>
-  </si>
-  <si>
-    <t>Custom</t>
-  </si>
-  <si>
-    <t>Desouky TU</t>
   </si>
   <si>
     <t>Desouky T</t>
@@ -212,15 +212,15 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -228,7 +228,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -236,7 +236,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -244,7 +244,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -252,7 +252,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -260,7 +260,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -268,7 +268,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -276,7 +276,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -284,7 +284,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -292,7 +292,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -300,7 +300,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -308,7 +308,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -316,7 +316,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -324,7 +324,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -332,7 +332,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -340,7 +340,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -348,7 +348,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -356,7 +356,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -364,7 +364,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -372,7 +372,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -380,7 +380,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -388,7 +388,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -396,7 +396,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -404,7 +404,7 @@
         <v>29</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -412,7 +412,7 @@
         <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -420,7 +420,7 @@
         <v>31</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -428,7 +428,7 @@
         <v>32</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -436,7 +436,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -444,7 +444,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -452,7 +452,7 @@
         <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -460,7 +460,7 @@
         <v>36</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -468,7 +468,7 @@
         <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -476,7 +476,7 @@
         <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
